--- a/trunk/installer/output/barcode.xlsx
+++ b/trunk/installer/output/barcode.xlsx
@@ -11,6 +11,10 @@
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -50,16 +54,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -355,26 +353,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="8.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="7" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7" style="1" customWidth="1"/>
+    <col min="14" max="14" width="5.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="6.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1"/>
-      <c r="C3" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetData/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>